--- a/数据整理/stocks/A股/科创板/688598-金博股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688598-金博股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.41</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.08</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.77</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.74</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>90.37</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007389</t>
+          <t>002654</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根研究驱动股票C</t>
+          <t>上投摩根策略精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002654</t>
+          <t>007389</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根策略精选灵活配置混合</t>
+          <t>上投摩根研究驱动股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>80.15</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>84.76</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>84.76</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004794</t>
+          <t>000209</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合A</t>
+          <t>信诚新兴产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.70</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004795</t>
+          <t>002542</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合C</t>
+          <t>长城久鼎灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>66.70</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -800,15 +910,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>89.60</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.85</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -828,15 +948,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>89.60</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.85</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000209</t>
+          <t>004794</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信诚新兴产业混合</t>
+          <t>富荣福鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>66.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006157</t>
+          <t>004795</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通量化核心优选混合</t>
+          <t>富荣福鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>66.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002542</t>
+          <t>006157</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长城久鼎灵活配置混合</t>
+          <t>财通量化核心优选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.20</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688598-金博股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688598-金博股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,1238 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9351</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2908</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>38.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>38.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005793</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华富可转债债券</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688598-金博股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688598-金博股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2322,4 +2323,2340 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1545</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0410</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9516</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8781</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7851</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5611</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4568</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4462</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4292</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3620</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3350</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3092</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004112</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>创金合信国企活力混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>76.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010921</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银润利混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>65.62</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688598-金博股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688598-金博股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4659,4 +4660,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688598-金博股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688598-金博股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4668,7 +4669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4679,17 +4680,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4699,14 +4720,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.63</v>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2511</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4715,14 +4758,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.73</v>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1799</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4731,14 +4796,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.42</v>
+          <t>012613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4941</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4747,13 +4834,2051 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8880</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8656</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8146</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7595</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7180</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6768</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6387</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5858</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5264</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5177</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4267</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012614</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>68.18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004112</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信国企活力混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688598-金博股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688598-金博股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6777,7 +6778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6788,17 +6789,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6808,14 +6829,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.51</v>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0981</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -6824,14 +6867,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>60</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.63</v>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8868</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -6840,14 +6905,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.73</v>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7877</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -6856,14 +6943,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.42</v>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7293</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -6872,13 +6981,1497 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7252</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5238</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5201</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5047</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>42.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>42.57</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688598-金博股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688598-金博股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8354,7 +8355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8365,17 +8366,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8385,14 +8406,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.93</v>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3428</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -8401,14 +8444,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.51</v>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -8417,14 +8482,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>60</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.63</v>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0852</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -8433,14 +8520,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.73</v>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6397</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -8449,14 +8558,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.42</v>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5514</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -8465,13 +8596,1359 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5206</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5119</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3641</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2623</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010230</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方宝昌混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010231</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方宝昌混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688598-金博股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688598-金博股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>7.47</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>7.93</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>15.51</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>10.63</v>
+        <v>15.51</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>2.73</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>0.42</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -600,6 +617,2794 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>242.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.5249</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3929</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7138</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0551</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3927</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1896</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1349</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1265</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1218</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8337</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7577</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6571</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5878</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4998</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4968</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4022</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3999</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3794</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3342</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3337</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013755</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银证券内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014686</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商核心装备混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013936</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发睿升混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001357</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>58.11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014651</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014687</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商核心装备混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>970113</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.29</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013756</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银证券内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>56.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>970101</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014652</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013937</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发睿升混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>55.14</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>970100</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>970102</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>55.14</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>970112</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>016033</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001376</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>58.11</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>016616</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>970114</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2059,7 +4864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3635,7 +6440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5743,7 +8548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8079,7 +10884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9313,7 +12118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9635,7 +12440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688598-金博股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688598-金博股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>36.4</v>
+        <v>21.28</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>7.47</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>7.93</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>15.51</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>10.63</v>
+        <v>15.51</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D7" t="n">
-        <v>2.73</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>0.42</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -616,7 +633,1715 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002654</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2711</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6968</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016709</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泉果旭源三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5868</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0819</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8386</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3679</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0873</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161026</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证国有企业改革指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9426</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定开混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8522</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5129</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5055</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4926</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4419</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4300</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3846</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016710</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泉果旭源三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3772</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2449</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>588160</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方上证科创板新材料ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014651</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>588010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时上证科创板新材料ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015429</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银证券专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>61.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014652</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015430</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银证券专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>61.04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014174</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国中证国有企业改革指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3404,7 +5129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4864,7 +6589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6440,7 +8165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8548,7 +10273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10884,7 +12609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12118,7 +13843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12438,326 +14163,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>376510</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根大盘蓝筹股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.41</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1722</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001753</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>红土创新新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1313</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007388</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根研究驱动股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0697</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002654</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上投摩根策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007389</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根研究驱动股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.37</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004266</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.76</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010754</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.76</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>